--- a/results/acl/baselines_pos.xlsx
+++ b/results/acl/baselines_pos.xlsx
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.1961952255621739</v>
+        <v>0.2118068965517241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.203014482990906</v>
+        <v>0.1805458229957766</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2526266635535839</v>
+        <v>0.2757242757242757</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.2358186397984887</v>
+        <v>0.216893039049236</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.266889970296404</v>
+        <v>0.2738805263656158</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.4873371924746744</v>
+        <v>0.2939434534301629</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.2425955741940315</v>
+        <v>0.2832591683289857</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.3700759993038232</v>
+        <v>0.2672127950068266</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -573,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.2688063225868633</v>
+        <v>0.2971181376820615</v>
       </c>
     </row>
     <row r="18" spans="1:2">
